--- a/CASUAL/LA PICNIC GROVE/NATANAWAN, MARY JANE GRACIANO.xlsx
+++ b/CASUAL/LA PICNIC GROVE/NATANAWAN, MARY JANE GRACIANO.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
   <si>
     <t>PERIOD</t>
   </si>
@@ -334,6 +334,27 @@
   </si>
   <si>
     <t>UT(0-0-59)</t>
+  </si>
+  <si>
+    <t>UT(0-2-2)</t>
+  </si>
+  <si>
+    <t>UT(0-1-47)</t>
+  </si>
+  <si>
+    <t>UT(0-3-17)</t>
+  </si>
+  <si>
+    <t>UT(0-0-19)</t>
+  </si>
+  <si>
+    <t>UT(0-0-36)</t>
+  </si>
+  <si>
+    <t>UT(0-0-51)</t>
+  </si>
+  <si>
+    <t>UT(0-1-48)</t>
   </si>
 </sst>
 </file>
@@ -715,6 +736,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -727,13 +760,7 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -741,12 +768,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1443,7 +1464,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1507,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1571,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1631,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1697,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1739,7 +1760,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1837,7 +1858,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1896,7 +1917,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1961,7 +1982,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2025,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2079,7 +2100,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,7 +2286,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2352,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,7 +2410,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2455,7 +2476,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2511,7 +2532,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2607,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,7 +2650,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2695,7 +2716,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2751,7 +2772,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2849,7 +2870,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2912,7 +2933,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2978,7 +2999,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K136" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K137" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3386,12 +3407,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <pane ySplit="3390" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
+      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,60 +3434,60 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3492,18 +3513,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3550,7 +3571,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>60.762</v>
+        <v>59.429000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4725,11 +4746,15 @@
       <c r="A66" s="40">
         <v>44621</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
-      <c r="D66" s="39"/>
+      <c r="D66" s="39">
+        <v>0.22500000000000001</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
@@ -4745,11 +4770,15 @@
       <c r="A67" s="40">
         <v>44652</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
-      <c r="D67" s="39"/>
+      <c r="D67" s="39">
+        <v>0.10600000000000001</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
@@ -4788,19 +4817,19 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40">
-        <v>44713</v>
-      </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D69" s="39"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="39">
+        <v>7.5000000000000011E-2</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
@@ -4809,13 +4838,17 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B70" s="20"/>
+        <v>44713</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="39"/>
+      <c r="D70" s="39">
+        <v>0.04</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -4829,13 +4862,17 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B71" s="20"/>
+        <v>44743</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
-      <c r="D71" s="39"/>
+      <c r="D71" s="39">
+        <v>0.41000000000000003</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
@@ -4849,13 +4886,17 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>44805</v>
-      </c>
-      <c r="B72" s="20"/>
+        <v>44774</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="39"/>
+      <c r="D72" s="39">
+        <v>0.223</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
@@ -4869,16 +4910,16 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
       <c r="D73" s="39">
-        <v>0.12300000000000001</v>
+        <v>0.254</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
@@ -4893,16 +4934,16 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
       <c r="D74" s="39">
-        <v>0.11900000000000001</v>
+        <v>0.12300000000000001</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
@@ -4917,16 +4958,16 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
       </c>
       <c r="D75" s="39">
-        <v>5</v>
+        <v>0.11900000000000001</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
@@ -4940,19 +4981,23 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
+      <c r="A76" s="40">
+        <v>44896</v>
+      </c>
       <c r="B76" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="39">
-        <v>0.246</v>
+        <v>5</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
@@ -4960,12 +5005,14 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B77" s="20"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="C77" s="13"/>
-      <c r="D77" s="39"/>
+      <c r="D77" s="39">
+        <v>0.246</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
       <c r="G77" s="13" t="str">
@@ -4978,19 +5025,17 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40">
-        <v>44927</v>
+      <c r="A78" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C78" s="13"/>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4999,7 +5044,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -5019,7 +5064,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -5039,7 +5084,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -5059,7 +5104,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -5079,7 +5124,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -5099,7 +5144,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -5119,7 +5164,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -5139,7 +5184,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -5159,16 +5204,18 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -5177,7 +5224,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5195,7 +5242,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5212,7 +5259,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45261</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5948,34 +5997,50 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="43"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="43"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="15"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="41"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="43"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6035,71 +6100,71 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="str">
+      <c r="B2" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>NATANAWAN, MARY JANE GRACIANO</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54" t="str">
+      <c r="B3" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="str">
+      <c r="F3" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="str">
+      <c r="B4" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B4:C4),"---------",'2018 LEAVE CREDITS'!B4:C4)</f>
         <v>CASUAL</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6125,18 +6190,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -8417,13 +8482,15 @@
         <v>33.542000000000002</v>
       </c>
       <c r="D3"/>
-      <c r="E3"/>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="F3">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.12300000000000001</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
